--- a/WorkspaceVariableKey.xlsx
+++ b/WorkspaceVariableKey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rosslyngrosely/Documents/Manuscripts/H_eIF1_eIF5/Revisions/2025_eIF1_eIF5_Shared_4/FinalDraft/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosalvarado/Documents/Puglisi Lab Files/Manuscripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B85A317-F69D-2148-B7C2-42C26E8E6F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB309889-6902-B343-B9A4-AC899EB463FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="2940" windowWidth="28060" windowHeight="17460" xr2:uid="{D47A701D-933F-244E-86EB-3C3BAD6D7127}"/>
+    <workbookView xWindow="740" yWindow="540" windowWidth="28060" windowHeight="17460" xr2:uid="{D47A701D-933F-244E-86EB-3C3BAD6D7127}"/>
   </bookViews>
   <sheets>
     <sheet name="40S_eIF5_multi" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="221">
   <si>
     <t>Variable</t>
   </si>
@@ -1292,20 +1292,19 @@
       </rPr>
       <t>; used to detect transitions.</t>
     </r>
+  </si>
+  <si>
+    <t>HMM_multi</t>
+  </si>
+  <si>
+    <t>HMM_last_5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1361,13 +1360,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1705,7 +1703,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1722,7 +1720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>206</v>
       </c>
@@ -1734,7 +1732,7 @@
       </c>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>208</v>
       </c>
@@ -1746,7 +1744,7 @@
       </c>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>210</v>
       </c>
@@ -1760,7 +1758,7 @@
     </row>
     <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>219</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>3</v>
@@ -1960,7 +1958,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1977,7 +1975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>206</v>
       </c>
@@ -1989,7 +1987,7 @@
       </c>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>208</v>
       </c>
@@ -2001,7 +1999,7 @@
       </c>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>210</v>
       </c>
@@ -2015,7 +2013,7 @@
     </row>
     <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>220</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>50</v>
@@ -2328,7 +2326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>206</v>
       </c>
@@ -2340,7 +2338,7 @@
       </c>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>208</v>
       </c>
@@ -2352,7 +2350,7 @@
       </c>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>210</v>
       </c>
@@ -2643,13 +2641,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="87" style="5" customWidth="1"/>
-    <col min="3" max="3" width="40" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="5"/>
+    <col min="1" max="1" width="28.5" customWidth="1"/>
+    <col min="2" max="2" width="87" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2705,7 +2702,7 @@
       <c r="A6" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2713,7 +2710,7 @@
       <c r="A7" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>178</v>
       </c>
     </row>
@@ -2721,7 +2718,7 @@
       <c r="A8" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>180</v>
       </c>
     </row>
@@ -2729,7 +2726,7 @@
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2737,7 +2734,7 @@
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2745,7 +2742,7 @@
       <c r="A11" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
         <v>217</v>
       </c>
     </row>
@@ -2753,7 +2750,7 @@
       <c r="A12" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2761,7 +2758,7 @@
       <c r="A13" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2769,7 +2766,7 @@
       <c r="A14" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2777,7 +2774,7 @@
       <c r="A15" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2785,7 +2782,7 @@
       <c r="A16" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2793,7 +2790,7 @@
       <c r="A17" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2801,7 +2798,7 @@
       <c r="A18" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2809,7 +2806,7 @@
       <c r="A19" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2817,7 +2814,7 @@
       <c r="A20" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2825,7 +2822,7 @@
       <c r="A21" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" t="s">
         <v>199</v>
       </c>
     </row>
@@ -2833,7 +2830,7 @@
       <c r="A22" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" t="s">
         <v>201</v>
       </c>
     </row>
@@ -2841,7 +2838,7 @@
       <c r="A23" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2849,7 +2846,7 @@
       <c r="A24" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" t="s">
         <v>205</v>
       </c>
     </row>
